--- a/biology/Neurosciences/Patricia_Reynaud-Bouret/Patricia_Reynaud-Bouret.xlsx
+++ b/biology/Neurosciences/Patricia_Reynaud-Bouret/Patricia_Reynaud-Bouret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patricia Reynaud-Bouret, née en 1978, est une mathématicienne et directrice de recherche française. Elle dirige ses recherches au Laboratoire Jean-Alexandre Dieudonné à l'Université Côte d'Azur. En 2021, elle reçoit la médaille d'argent du CNRS.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2002, Patricia Reynaud-Bouret soutient sa thèse de doctorat en statistique sur les processus ponctuels sous la direction de Pascal Massart à l'Université Paris-Saclay. Entre 2002 et 2003, elle effectue des recherches postdoctorales à Georgia Institute of Technology auprès de Christian Houdré.
-En 2003, elle obtient un poste de chargée de recherche au département de mathématiques et applications de l'École normale supérieure. Elle rejoint en 2008 le Laboratoire Jean-Alexandre Dieudonné à l'Université Côte d'Azur, où elle est promue directrice de recherche en 2014. En 2020, elle fonde et dirige l'Institut NeuroMod dédié à la modélisation en neurosciences et cognition au sein de cette même université. En 2021, elle reçoit la médaille d'argent du CNRS pour ses travaux en statistique des processus de Hawkes[1].
+En 2003, elle obtient un poste de chargée de recherche au département de mathématiques et applications de l'École normale supérieure. Elle rejoint en 2008 le Laboratoire Jean-Alexandre Dieudonné à l'Université Côte d'Azur, où elle est promue directrice de recherche en 2014. En 2020, elle fonde et dirige l'Institut NeuroMod dédié à la modélisation en neurosciences et cognition au sein de cette même université. En 2021, elle reçoit la médaille d'argent du CNRS pour ses travaux en statistique des processus de Hawkes.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle étudie la modélisation stochastique et l’analyse statistique. Elle est notamment spécialiste en statistique des processus et plus particulièrement des processus de Hawkes, avec des applications en neurosciences et en génomique.
-Ses recherches visent notamment à développer des méthodes de reconstruction de la connectivité fonctionnelle, un concept utilisé en neurosciences qui correspond à l'ensemble des connexions définies entre différentes régions du cerveau. Elle s’est intéressée également à l’apprentissage humain ou animal[2].
-Elle participe aussi à des actions de vulgarisation scientifique en neurosciences comme avec l'évènement Neuroplanète à Nice[3].
+Ses recherches visent notamment à développer des méthodes de reconstruction de la connectivité fonctionnelle, un concept utilisé en neurosciences qui correspond à l'ensemble des connexions définies entre différentes régions du cerveau. Elle s’est intéressée également à l’apprentissage humain ou animal.
+Elle participe aussi à des actions de vulgarisation scientifique en neurosciences comme avec l'évènement Neuroplanète à Nice.
 </t>
         </is>
       </c>
@@ -576,11 +592,13 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2020 : Prix Pierre-Faurre de l'Académie des sciences[2]
-2021 : Médaille d'argent du CNRS[4]
-2023 :  Chevalière de l'ordre national du Mérite[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2020 : Prix Pierre-Faurre de l'Académie des sciences
+2021 : Médaille d'argent du CNRS
+2023 :  Chevalière de l'ordre national du Mérite.</t>
         </is>
       </c>
     </row>
@@ -608,7 +626,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>« Adaptive estimation of the intensity of inhomogeneous Poisson processes via concentration inequalities ». Probab. Theory Related Fields 126 (2003), no. 1, 103–153.
 « Lasso and probabilistic inequalities for multivariate point processes ». Bernoulli 21 (2015), no. 1, 83–143.
